--- a/submissions_automation/submitters.xlsx
+++ b/submissions_automation/submitters.xlsx
@@ -9,64 +9,56 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6792"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10428" windowHeight="5484" firstSheet="12" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="Submitters" sheetId="1" r:id="rId1"/>
-    <sheet name="1" sheetId="44" r:id="rId2"/>
-    <sheet name="2" sheetId="26" r:id="rId3"/>
-    <sheet name="3" sheetId="20" r:id="rId4"/>
-    <sheet name="4" sheetId="21" r:id="rId5"/>
-    <sheet name="5" sheetId="22" r:id="rId6"/>
-    <sheet name="6" sheetId="23" r:id="rId7"/>
-    <sheet name="7" sheetId="24" r:id="rId8"/>
-    <sheet name="8" sheetId="25" r:id="rId9"/>
-    <sheet name="9" sheetId="27" r:id="rId10"/>
-    <sheet name="10" sheetId="28" r:id="rId11"/>
-    <sheet name="11" sheetId="29" r:id="rId12"/>
-    <sheet name="12" sheetId="30" r:id="rId13"/>
-    <sheet name="13" sheetId="31" r:id="rId14"/>
-    <sheet name="14" sheetId="32" r:id="rId15"/>
-    <sheet name="15" sheetId="33" r:id="rId16"/>
-    <sheet name="16" sheetId="34" r:id="rId17"/>
-    <sheet name="17" sheetId="35" r:id="rId18"/>
-    <sheet name="18" sheetId="6" r:id="rId19"/>
-    <sheet name="19" sheetId="8" r:id="rId20"/>
-    <sheet name="20" sheetId="9" r:id="rId21"/>
-    <sheet name="21" sheetId="3" r:id="rId22"/>
-    <sheet name="22" sheetId="4" r:id="rId23"/>
-    <sheet name="23" sheetId="5" r:id="rId24"/>
-    <sheet name="24" sheetId="10" r:id="rId25"/>
-    <sheet name="25" sheetId="11" r:id="rId26"/>
-    <sheet name="26" sheetId="12" r:id="rId27"/>
-    <sheet name="27" sheetId="13" r:id="rId28"/>
-    <sheet name="28" sheetId="14" r:id="rId29"/>
-    <sheet name="29" sheetId="15" r:id="rId30"/>
-    <sheet name="30" sheetId="16" r:id="rId31"/>
-    <sheet name="31" sheetId="17" r:id="rId32"/>
-    <sheet name="32" sheetId="18" r:id="rId33"/>
-    <sheet name="33" sheetId="45" r:id="rId34"/>
-    <sheet name="34" sheetId="46" r:id="rId35"/>
-    <sheet name="35" sheetId="47" r:id="rId36"/>
-    <sheet name="36" sheetId="48" r:id="rId37"/>
-    <sheet name="37" sheetId="49" r:id="rId38"/>
-    <sheet name="38" sheetId="50" r:id="rId39"/>
-    <sheet name="39" sheetId="51" r:id="rId40"/>
-    <sheet name="40" sheetId="52" r:id="rId41"/>
-    <sheet name="41" sheetId="53" r:id="rId42"/>
-    <sheet name="42" sheetId="54" r:id="rId43"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="4" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="6" r:id="rId6"/>
+    <sheet name="6" sheetId="7" r:id="rId7"/>
+    <sheet name="7" sheetId="8" r:id="rId8"/>
+    <sheet name="8" sheetId="9" r:id="rId9"/>
+    <sheet name="9" sheetId="10" r:id="rId10"/>
+    <sheet name="10" sheetId="11" r:id="rId11"/>
+    <sheet name="11" sheetId="12" r:id="rId12"/>
+    <sheet name="12" sheetId="13" r:id="rId13"/>
+    <sheet name="13" sheetId="14" r:id="rId14"/>
+    <sheet name="14" sheetId="15" r:id="rId15"/>
+    <sheet name="15" sheetId="16" r:id="rId16"/>
+    <sheet name="16" sheetId="17" r:id="rId17"/>
+    <sheet name="18" sheetId="19" r:id="rId18"/>
+    <sheet name="19" sheetId="20" r:id="rId19"/>
+    <sheet name="20" sheetId="21" r:id="rId20"/>
+    <sheet name="21" sheetId="22" r:id="rId21"/>
+    <sheet name="22" sheetId="23" r:id="rId22"/>
+    <sheet name="23" sheetId="24" r:id="rId23"/>
+    <sheet name="24" sheetId="25" r:id="rId24"/>
+    <sheet name="25" sheetId="26" r:id="rId25"/>
+    <sheet name="26" sheetId="27" r:id="rId26"/>
+    <sheet name="27" sheetId="28" r:id="rId27"/>
+    <sheet name="28" sheetId="29" r:id="rId28"/>
+    <sheet name="29" sheetId="30" r:id="rId29"/>
+    <sheet name="30" sheetId="31" r:id="rId30"/>
+    <sheet name="32" sheetId="33" r:id="rId31"/>
+    <sheet name="33" sheetId="34" r:id="rId32"/>
+    <sheet name="34" sheetId="35" r:id="rId33"/>
+    <sheet name="35" sheetId="36" r:id="rId34"/>
+    <sheet name="36" sheetId="37" r:id="rId35"/>
+    <sheet name="37" sheetId="38" r:id="rId36"/>
+    <sheet name="38" sheetId="39" r:id="rId37"/>
+    <sheet name="40" sheetId="41" r:id="rId38"/>
+    <sheet name="41" sheetId="42" r:id="rId39"/>
+    <sheet name="42" sheetId="43" r:id="rId40"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="200">
   <si>
     <t>ID Number</t>
   </si>
@@ -221,15 +213,6 @@
     <t>Anastasia.Martinova78@myhunter.cuny.edu</t>
   </si>
   <si>
-    <t>Mirza</t>
-  </si>
-  <si>
-    <t>Raihan</t>
-  </si>
-  <si>
-    <t>mirzaraihan@gmail.com</t>
-  </si>
-  <si>
     <t>Ng</t>
   </si>
   <si>
@@ -434,13 +417,247 @@
     <t>bigf22@gmail.com</t>
   </si>
   <si>
+    <t>Submitter ID</t>
+  </si>
+  <si>
+    <t>Assigned Date</t>
+  </si>
+  <si>
     <t>Submit Date</t>
   </si>
   <si>
-    <t>Assigned Date</t>
-  </si>
-  <si>
-    <t>Submitter ID</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:45</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:46</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:47</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:48</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:49</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:50</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:51</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:52</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:53</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:54</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:55</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:56</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:58</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:13:59</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:01</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:02</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:04</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:05</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:06</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:07</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:09</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:11</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:12</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:13</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:14</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:15</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:16</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:17</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:19</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:20</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:22</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:23</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:24</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:26</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:27</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:29</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:30</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>2016-11-28 08:14:31</t>
   </si>
 </sst>
 </file>
@@ -483,7 +700,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -792,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1040,7 +1257,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
@@ -1054,7 +1271,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -1068,7 +1285,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
@@ -1082,7 +1299,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -1096,7 +1313,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
@@ -1110,7 +1327,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
@@ -1124,7 +1341,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
@@ -1138,7 +1355,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -1152,7 +1369,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
@@ -1166,7 +1383,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>78</v>
@@ -1180,7 +1397,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>81</v>
@@ -1194,7 +1411,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>84</v>
@@ -1208,7 +1425,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>87</v>
@@ -1222,189 +1439,147 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="H34" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" t="s">
-        <v>121</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1412,569 +1587,745 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+      <c r="B2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1984,23 +2335,31 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2010,23 +2369,31 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2036,23 +2403,31 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2062,23 +2437,31 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2088,23 +2471,31 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2114,23 +2505,31 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2140,23 +2539,31 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2166,23 +2573,31 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2192,23 +2607,31 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2218,23 +2641,31 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2244,23 +2675,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2270,101 +2709,31 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2374,23 +2743,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2400,23 +2777,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2426,23 +2811,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2452,23 +2845,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2478,23 +2879,31 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/submissions_automation/submitters.xlsx
+++ b/submissions_automation/submitters.xlsx
@@ -1,64 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\microbe-database\submissions_automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10428" windowHeight="5484" firstSheet="12" activeTab="37"/>
+    <workbookView activeTab="37"/>
   </bookViews>
   <sheets>
-    <sheet name="Submitters" sheetId="1" r:id="rId1"/>
-    <sheet name="1" sheetId="2" r:id="rId2"/>
-    <sheet name="2" sheetId="3" r:id="rId3"/>
-    <sheet name="3" sheetId="4" r:id="rId4"/>
-    <sheet name="4" sheetId="5" r:id="rId5"/>
-    <sheet name="5" sheetId="6" r:id="rId6"/>
-    <sheet name="6" sheetId="7" r:id="rId7"/>
-    <sheet name="7" sheetId="8" r:id="rId8"/>
-    <sheet name="8" sheetId="9" r:id="rId9"/>
-    <sheet name="9" sheetId="10" r:id="rId10"/>
-    <sheet name="10" sheetId="11" r:id="rId11"/>
-    <sheet name="11" sheetId="12" r:id="rId12"/>
-    <sheet name="12" sheetId="13" r:id="rId13"/>
-    <sheet name="13" sheetId="14" r:id="rId14"/>
-    <sheet name="14" sheetId="15" r:id="rId15"/>
-    <sheet name="15" sheetId="16" r:id="rId16"/>
-    <sheet name="16" sheetId="17" r:id="rId17"/>
-    <sheet name="18" sheetId="19" r:id="rId18"/>
-    <sheet name="19" sheetId="20" r:id="rId19"/>
-    <sheet name="20" sheetId="21" r:id="rId20"/>
-    <sheet name="21" sheetId="22" r:id="rId21"/>
-    <sheet name="22" sheetId="23" r:id="rId22"/>
-    <sheet name="23" sheetId="24" r:id="rId23"/>
-    <sheet name="24" sheetId="25" r:id="rId24"/>
-    <sheet name="25" sheetId="26" r:id="rId25"/>
-    <sheet name="26" sheetId="27" r:id="rId26"/>
-    <sheet name="27" sheetId="28" r:id="rId27"/>
-    <sheet name="28" sheetId="29" r:id="rId28"/>
-    <sheet name="29" sheetId="30" r:id="rId29"/>
-    <sheet name="30" sheetId="31" r:id="rId30"/>
-    <sheet name="32" sheetId="33" r:id="rId31"/>
-    <sheet name="33" sheetId="34" r:id="rId32"/>
-    <sheet name="34" sheetId="35" r:id="rId33"/>
-    <sheet name="35" sheetId="36" r:id="rId34"/>
-    <sheet name="36" sheetId="37" r:id="rId35"/>
-    <sheet name="37" sheetId="38" r:id="rId36"/>
-    <sheet name="38" sheetId="39" r:id="rId37"/>
-    <sheet name="40" sheetId="41" r:id="rId38"/>
-    <sheet name="41" sheetId="42" r:id="rId39"/>
-    <sheet name="42" sheetId="43" r:id="rId40"/>
+    <sheet name="Submitters" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="16" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="19" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="20" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="21" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="22" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="23" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="24" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="25" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="26" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="27" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="28" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="29" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="30" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="32" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="33" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="34" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="35" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="36" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="37" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="38" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="40" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="41" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="42" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>ID Number</t>
   </si>
@@ -480,6 +475,12 @@
     <t>2016-11-28 08:13:53</t>
   </si>
   <si>
+    <t>Sun, 11 Dec 2016 21:30:07 +0000</t>
+  </si>
+  <si>
+    <t>2016-12-11 18:25:02</t>
+  </si>
+  <si>
     <t>107</t>
   </si>
   <si>
@@ -663,19 +664,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -691,24 +693,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1008,16 +1001,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1031,8 +1028,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1045,8 +1042,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1059,8 +1056,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+    <row r="4" spans="1:8">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1073,8 +1070,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+    <row r="5" spans="1:8">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1087,8 +1084,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+    <row r="6" spans="1:8">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1101,8 +1098,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
+    <row r="7" spans="1:8">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1115,8 +1112,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
+    <row r="8" spans="1:8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1129,8 +1126,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
+    <row r="9" spans="1:8">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1143,8 +1140,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+    <row r="10" spans="1:8">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1157,8 +1154,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+    <row r="11" spans="1:8">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1171,8 +1168,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
+    <row r="12" spans="1:8">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1185,8 +1182,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
+    <row r="13" spans="1:8">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1199,8 +1196,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+    <row r="14" spans="1:8">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1213,8 +1210,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
+    <row r="15" spans="1:8">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1227,8 +1224,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+    <row r="16" spans="1:8">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1241,8 +1238,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+    <row r="17" spans="1:8">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1255,8 +1252,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+    <row r="18" spans="1:8">
+      <c r="A18" t="n">
         <v>18</v>
       </c>
       <c r="B18" t="s">
@@ -1269,8 +1266,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+    <row r="19" spans="1:8">
+      <c r="A19" t="n">
         <v>19</v>
       </c>
       <c r="B19" t="s">
@@ -1283,8 +1280,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+    <row r="20" spans="1:8">
+      <c r="A20" t="n">
         <v>20</v>
       </c>
       <c r="B20" t="s">
@@ -1297,8 +1294,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+    <row r="21" spans="1:8">
+      <c r="A21" t="n">
         <v>21</v>
       </c>
       <c r="B21" t="s">
@@ -1311,8 +1308,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+    <row r="22" spans="1:8">
+      <c r="A22" t="n">
         <v>22</v>
       </c>
       <c r="B22" t="s">
@@ -1325,8 +1322,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
+    <row r="23" spans="1:8">
+      <c r="A23" t="n">
         <v>23</v>
       </c>
       <c r="B23" t="s">
@@ -1339,8 +1336,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
+    <row r="24" spans="1:8">
+      <c r="A24" t="n">
         <v>24</v>
       </c>
       <c r="B24" t="s">
@@ -1353,8 +1350,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
+    <row r="25" spans="1:8">
+      <c r="A25" t="n">
         <v>25</v>
       </c>
       <c r="B25" t="s">
@@ -1367,8 +1364,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
+    <row r="26" spans="1:8">
+      <c r="A26" t="n">
         <v>26</v>
       </c>
       <c r="B26" t="s">
@@ -1381,8 +1378,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
+    <row r="27" spans="1:8">
+      <c r="A27" t="n">
         <v>27</v>
       </c>
       <c r="B27" t="s">
@@ -1395,8 +1392,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+    <row r="28" spans="1:8">
+      <c r="A28" t="n">
         <v>28</v>
       </c>
       <c r="B28" t="s">
@@ -1409,8 +1406,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
+    <row r="29" spans="1:8">
+      <c r="A29" t="n">
         <v>29</v>
       </c>
       <c r="B29" t="s">
@@ -1423,8 +1420,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
+    <row r="30" spans="1:8">
+      <c r="A30" t="n">
         <v>30</v>
       </c>
       <c r="B30" t="s">
@@ -1437,8 +1434,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
+    <row r="31" spans="1:8">
+      <c r="A31" t="n">
         <v>32</v>
       </c>
       <c r="B31" t="s">
@@ -1451,8 +1448,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
+    <row r="32" spans="1:8">
+      <c r="A32" t="n">
         <v>33</v>
       </c>
       <c r="B32" t="s">
@@ -1465,8 +1462,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
+    <row r="33" spans="1:8">
+      <c r="A33" t="n">
         <v>34</v>
       </c>
       <c r="B33" t="s">
@@ -1479,8 +1476,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
+    <row r="34" spans="1:8">
+      <c r="A34" t="n">
         <v>35</v>
       </c>
       <c r="B34" t="s">
@@ -1496,8 +1493,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
+    <row r="35" spans="1:8">
+      <c r="A35" t="n">
         <v>36</v>
       </c>
       <c r="B35" t="s">
@@ -1510,8 +1507,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
+    <row r="36" spans="1:8">
+      <c r="A36" t="n">
         <v>37</v>
       </c>
       <c r="B36" t="s">
@@ -1524,8 +1521,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
+    <row r="37" spans="1:8">
+      <c r="A37" t="n">
         <v>38</v>
       </c>
       <c r="B37" t="s">
@@ -1538,8 +1535,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
+    <row r="38" spans="1:8">
+      <c r="A38" t="n">
         <v>40</v>
       </c>
       <c r="B38" t="s">
@@ -1552,8 +1549,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
+    <row r="39" spans="1:8">
+      <c r="A39" t="n">
         <v>41</v>
       </c>
       <c r="B39" t="s">
@@ -1566,8 +1563,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
+    <row r="40" spans="1:8">
+      <c r="A40" t="n">
         <v>42</v>
       </c>
       <c r="B40" t="s">
@@ -1581,372 +1578,430 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>139</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -1955,372 +2010,416 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -2329,372 +2428,416 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -2703,66 +2846,74 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -2771,32 +2922,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -2805,32 +2960,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -2839,32 +2998,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -2873,32 +3036,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2907,6 +3074,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>